--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flow-quest-stackoverflow-migrate</t>
+    <t>webminer-stackoverflow-quest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>webminer-stackoverflow-quest</t>
+    <t>flow-quest-stackoverflow-quest-migrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,6 +286,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -319,15 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,9 +338,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +637,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -649,44 +649,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -710,121 +710,121 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5"/>
@@ -1136,11 +1136,6 @@
     <row r="55" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D17:H17"/>
@@ -1157,6 +1152,11 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,7 +286,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,49 +328,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +637,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -649,44 +649,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -710,121 +710,121 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="27">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="9"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5"/>
@@ -1136,6 +1136,11 @@
     <row r="55" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D17:H17"/>
@@ -1152,11 +1157,6 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,50 @@
   </si>
   <si>
     <t>flow-quest-stackoverflow-quest-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dzone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-dzone-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-dzone-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javacodegeeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-javacodegeeks-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-javacodegeeks-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-javacodegeeks-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baeldung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-baeldung-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-baeldung-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-baeldung-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,17 +237,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -255,20 +288,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,65 +307,74 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -649,44 +685,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -700,463 +736,400 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="9"/>
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="18" customHeight="1"/>
-    <row r="49" ht="18" customHeight="1"/>
-    <row r="50" ht="18" customHeight="1"/>
-    <row r="51" ht="18" customHeight="1"/>
-    <row r="52" ht="18" customHeight="1"/>
-    <row r="53" ht="18" customHeight="1"/>
-    <row r="54" ht="15.95" customHeight="1"/>
-    <row r="55" ht="15.95" customHeight="1"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1"/>
+    <row r="41" spans="1:8" ht="18" customHeight="1"/>
+    <row r="42" spans="1:8" ht="18" customHeight="1"/>
+    <row r="43" spans="1:8" ht="18" customHeight="1"/>
+    <row r="44" spans="1:8" ht="18" customHeight="1"/>
+    <row r="45" spans="1:8" ht="18" customHeight="1"/>
+    <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
+    <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="10">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D11:H11"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,22 @@
   </si>
   <si>
     <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-baeldung-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-mkyong-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkyong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-mkyong-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-mkyong-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +330,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,7 +695,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -685,44 +707,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -746,41 +768,41 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -792,13 +814,13 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -810,13 +832,13 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -828,23 +850,31 @@
       <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="3"/>
@@ -1011,7 +1041,9 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1119,7 +1151,8 @@
     <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
     <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="A1:E5"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-mkyong-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-infoq-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-infoq-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-infoq-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +346,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -694,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,44 +729,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -768,41 +790,41 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="30">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -814,13 +836,13 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -832,13 +854,13 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -850,13 +872,13 @@
       <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -868,23 +890,31 @@
       <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="3"/>
@@ -1053,7 +1083,9 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1151,7 +1183,8 @@
     <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
     <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D14:H14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D11:H11"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,22 @@
   </si>
   <si>
     <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-infoq-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thenewstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-thenewstack-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-thenewstack-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-thenewstack-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +362,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -717,7 +739,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -729,44 +751,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -790,41 +812,41 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="32">
         <v>5</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -836,13 +858,13 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -854,13 +876,13 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -872,13 +894,13 @@
       <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -890,13 +912,13 @@
       <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -908,23 +930,31 @@
       <c r="C14" s="15">
         <v>5</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="3"/>
@@ -1095,7 +1125,9 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1183,7 +1215,8 @@
     <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
     <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D12:H12"/>

--- a/flow/miner/miner-kafka.xlsx
+++ b/flow/miner/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,22 @@
   </si>
   <si>
     <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-thenewstack-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-jvns-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-article-jvns-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-jvns-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +378,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -739,7 +761,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,44 +773,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -812,41 +834,41 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="34">
         <v>5</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -858,13 +880,13 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -876,13 +898,13 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -894,13 +916,13 @@
       <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -912,13 +934,13 @@
       <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -930,13 +952,13 @@
       <c r="C14" s="15">
         <v>5</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="16" t="s">
@@ -948,23 +970,31 @@
       <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="3"/>
@@ -1137,7 +1167,9 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1215,12 +1247,8 @@
     <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
     <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D11:H11"/>
+  <mergeCells count="14">
+    <mergeCell ref="D16:H16"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
@@ -1229,6 +1257,11 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
